--- a/data/Variables included in County Data.xlsx
+++ b/data/Variables included in County Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scottinsacto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scottinsacto\Desktop\code4sac\sacramento-county-homeless-hmis-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792854C9-9CC1-4E1A-B612-BE0270CAF7E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5373DD-24C8-4D8D-9DBA-2559264913E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01BDB3CC-10FA-436C-97AD-9E06AAD1D320}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{01BDB3CC-10FA-436C-97AD-9E06AAD1D320}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Features!$A$1:$B$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1006,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69C93D9-A168-42E5-B803-9BDD8727AFE6}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1507,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF5138-17C4-414D-BC1E-0FF2AECADF23}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
